--- a/data/trans_orig/P36BPD12_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD12_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>137767</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>119103</v>
+        <v>121518</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>155572</v>
+        <v>156239</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4320810350656091</v>
+        <v>0.4320810350656092</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3735457921076143</v>
+        <v>0.3811197528240473</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4879245763718134</v>
+        <v>0.4900139660772592</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>255</v>
@@ -762,19 +762,19 @@
         <v>148954</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>133770</v>
+        <v>134403</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>162326</v>
+        <v>163631</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4712834506729224</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4232423460734254</v>
+        <v>0.4252445329277729</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5135902676968088</v>
+        <v>0.5177204755784295</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>402</v>
@@ -783,19 +783,19 @@
         <v>286721</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>264708</v>
+        <v>265187</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>310773</v>
+        <v>312339</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4515962738014652</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4169248342085173</v>
+        <v>0.4176784974636096</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4894781123542922</v>
+        <v>0.4919447385316437</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>123792</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106106</v>
+        <v>106738</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>141937</v>
+        <v>142548</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3882523743194204</v>
+        <v>0.3882523743194206</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3327819362771662</v>
+        <v>0.3347648872386301</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4451608049816182</v>
+        <v>0.4470768298346602</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>222</v>
@@ -833,19 +833,19 @@
         <v>133246</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>119204</v>
+        <v>119259</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>148148</v>
+        <v>148501</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4215845130947085</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.377154442060463</v>
+        <v>0.3773284906405974</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4687330677948754</v>
+        <v>0.4698479196436727</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>350</v>
@@ -854,19 +854,19 @@
         <v>257039</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>234982</v>
+        <v>234341</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>280325</v>
+        <v>281239</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4048453478823832</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.370104463227979</v>
+        <v>0.3690955219991136</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.44152196826355</v>
+        <v>0.4429611830239713</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>57286</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>43955</v>
+        <v>44268</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>72960</v>
+        <v>71988</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1796665906149703</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1378555251631349</v>
+        <v>0.1388389718029322</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2288267905642309</v>
+        <v>0.2257764485898421</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>61</v>
@@ -904,19 +904,19 @@
         <v>33860</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25869</v>
+        <v>25598</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>42297</v>
+        <v>43522</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1071320362323692</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08184828678768727</v>
+        <v>0.08099097938206565</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.133825112927541</v>
+        <v>0.137702097240248</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>117</v>
@@ -925,19 +925,19 @@
         <v>91146</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75736</v>
+        <v>74002</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>109869</v>
+        <v>107613</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1435583783161517</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1192863434813916</v>
+        <v>0.1165559653989455</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.173048250932797</v>
+        <v>0.1694949023963942</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>200924</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>173904</v>
+        <v>174358</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>229612</v>
+        <v>226595</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3792975681715447</v>
+        <v>0.3792975681715446</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3282907038652342</v>
+        <v>0.3291474287190812</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4334549489629197</v>
+        <v>0.4277580745792586</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>305</v>
@@ -1050,19 +1050,19 @@
         <v>228867</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>209067</v>
+        <v>209821</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>250782</v>
+        <v>249144</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4187907648118182</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3825600265902642</v>
+        <v>0.3839396532385761</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4588923087572419</v>
+        <v>0.4558959767670044</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>457</v>
@@ -1071,19 +1071,19 @@
         <v>429791</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>395393</v>
+        <v>396497</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>469460</v>
+        <v>465836</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3993518301380503</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3673897247667013</v>
+        <v>0.368416307955791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4362117092063869</v>
+        <v>0.4328442349382293</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>267048</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>238806</v>
+        <v>235746</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>296063</v>
+        <v>291998</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5041240030657524</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4508111070444117</v>
+        <v>0.4450330117225164</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.558898825850815</v>
+        <v>0.5512255107253914</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>340</v>
@@ -1121,19 +1121,19 @@
         <v>258961</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>239418</v>
+        <v>237512</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>279160</v>
+        <v>279831</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4738584337495193</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4380987512142065</v>
+        <v>0.4346110220380209</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5108207495845348</v>
+        <v>0.5120482133859828</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>530</v>
@@ -1142,19 +1142,19 @@
         <v>526009</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>488086</v>
+        <v>488300</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>561433</v>
+        <v>560456</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4887554406988808</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4535180052222125</v>
+        <v>0.4537176196793996</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.521670689198341</v>
+        <v>0.5207631292989716</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>61755</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42861</v>
+        <v>43838</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84881</v>
+        <v>87699</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1165784287627028</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08091129198237805</v>
+        <v>0.08275569118150372</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1602350546087318</v>
+        <v>0.1655556160143154</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -1192,19 +1192,19 @@
         <v>58667</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45214</v>
+        <v>46645</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72841</v>
+        <v>73112</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1073508014386625</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08273431315757487</v>
+        <v>0.08535242763638239</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.133287812510581</v>
+        <v>0.1337833333741621</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -1213,19 +1213,19 @@
         <v>120421</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>97661</v>
+        <v>98619</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144730</v>
+        <v>148989</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.111892729163069</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09074417778603165</v>
+        <v>0.09163427471337598</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1344800507219931</v>
+        <v>0.1384373679394053</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>98280</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>83854</v>
+        <v>82944</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>114213</v>
+        <v>114330</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3144503453634959</v>
+        <v>0.3144503453634958</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2682949333445936</v>
+        <v>0.2653825934154747</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3654291606065536</v>
+        <v>0.3658026779880829</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>265</v>
@@ -1338,19 +1338,19 @@
         <v>176703</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>161183</v>
+        <v>161120</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>190623</v>
+        <v>193133</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4997281062242949</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4558346540314726</v>
+        <v>0.4556585328176176</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5390934250573437</v>
+        <v>0.5461922074052112</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>385</v>
@@ -1359,19 +1359,19 @@
         <v>274984</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>255238</v>
+        <v>251855</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>299663</v>
+        <v>297329</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4127985132229084</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3831570078545572</v>
+        <v>0.3780777877397674</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4498461442145911</v>
+        <v>0.4463434723359958</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>140676</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>123993</v>
+        <v>125461</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157834</v>
+        <v>158913</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4500986845342632</v>
+        <v>0.4500986845342631</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3967207754481868</v>
+        <v>0.4014169568957884</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5049973605576612</v>
+        <v>0.5084482362273152</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>171</v>
@@ -1409,19 +1409,19 @@
         <v>112450</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99357</v>
+        <v>98973</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128388</v>
+        <v>128185</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3180142965376279</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2809872464940114</v>
+        <v>0.2799020928984393</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3630902466323798</v>
+        <v>0.3625143929183618</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>323</v>
@@ -1430,19 +1430,19 @@
         <v>253126</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>230503</v>
+        <v>228488</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>276388</v>
+        <v>275477</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3799863434634934</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3460258918021235</v>
+        <v>0.3430011372116202</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4149064605671149</v>
+        <v>0.4135391839431463</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>73589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59032</v>
+        <v>59644</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>88241</v>
+        <v>88434</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.235450970102241</v>
+        <v>0.2354509701022409</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1888765295184298</v>
+        <v>0.1908319902378927</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2823312313322162</v>
+        <v>0.2829493371560023</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>96</v>
@@ -1480,19 +1480,19 @@
         <v>64446</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53892</v>
+        <v>51289</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77990</v>
+        <v>76684</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1822575972380772</v>
+        <v>0.1822575972380771</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1524086361038283</v>
+        <v>0.145049824963149</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2205602136485131</v>
+        <v>0.2168663524884072</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>180</v>
@@ -1501,19 +1501,19 @@
         <v>138035</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>120027</v>
+        <v>121220</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>158448</v>
+        <v>157891</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2072151433135982</v>
+        <v>0.2072151433135981</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1801809885684122</v>
+        <v>0.181972435338314</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2378582913942656</v>
+        <v>0.2370222117726935</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>128210</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>105143</v>
+        <v>105015</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>152079</v>
+        <v>152654</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.343592486409606</v>
+        <v>0.3435924864096061</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2817739792583232</v>
+        <v>0.2814331497326221</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4075607930225018</v>
+        <v>0.409100882992339</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>277</v>
@@ -1626,19 +1626,19 @@
         <v>175983</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>155878</v>
+        <v>157426</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>193563</v>
+        <v>196103</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4182186360177246</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3704410543867064</v>
+        <v>0.3741196529073242</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4599970124142797</v>
+        <v>0.466035270481674</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>391</v>
@@ -1647,19 +1647,19 @@
         <v>304192</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>272574</v>
+        <v>275790</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>337537</v>
+        <v>338257</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3831447984388496</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.343319772430789</v>
+        <v>0.347370877228438</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4251438491600711</v>
+        <v>0.4260508068230982</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>82870</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>65479</v>
+        <v>64812</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>105693</v>
+        <v>104685</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2220856406852207</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.175477584587953</v>
+        <v>0.173690154015538</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2832478519583145</v>
+        <v>0.2805478643081509</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>130</v>
@@ -1697,19 +1697,19 @@
         <v>94626</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>79061</v>
+        <v>79743</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>112501</v>
+        <v>111552</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2248775402583739</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1878860938233745</v>
+        <v>0.1895063794657288</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2673550363421988</v>
+        <v>0.2651016694386921</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>206</v>
@@ -1718,19 +1718,19 @@
         <v>177497</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>153667</v>
+        <v>153560</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>205279</v>
+        <v>205853</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2235653643967017</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.193550881485391</v>
+        <v>0.1934158670351587</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2585586008937818</v>
+        <v>0.2592810020365763</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>162065</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>135977</v>
+        <v>136161</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>189300</v>
+        <v>187883</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4343218729051734</v>
+        <v>0.4343218729051733</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3644072233821191</v>
+        <v>0.3649015879500626</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5073087147706209</v>
+        <v>0.5035117239476101</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>190</v>
@@ -1768,19 +1768,19 @@
         <v>150182</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>133560</v>
+        <v>130689</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>170886</v>
+        <v>170376</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3569038237239017</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3174029466845633</v>
+        <v>0.3105786103177924</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4061071954666347</v>
+        <v>0.4048943641629009</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>292</v>
@@ -1789,19 +1789,19 @@
         <v>312247</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>279430</v>
+        <v>279559</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>344571</v>
+        <v>347616</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3932898371644487</v>
+        <v>0.3932898371644486</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3519559001542497</v>
+        <v>0.3521182240824299</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4340032060925196</v>
+        <v>0.4378388937898521</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>34321</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25934</v>
+        <v>25766</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45598</v>
+        <v>44702</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1680825090673274</v>
+        <v>0.1680825090673273</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1270074659572342</v>
+        <v>0.1261868743727478</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.223308845501594</v>
+        <v>0.2189193198820344</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>77</v>
@@ -1914,19 +1914,19 @@
         <v>36209</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29977</v>
+        <v>28534</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45921</v>
+        <v>45164</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1596375408684644</v>
+        <v>0.1596375408684643</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.132161078077063</v>
+        <v>0.1257990215336695</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.202453307279422</v>
+        <v>0.1991138560806919</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>125</v>
@@ -1935,19 +1935,19 @@
         <v>70531</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>59124</v>
+        <v>58699</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>83652</v>
+        <v>83438</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1636383238757248</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1371729154770913</v>
+        <v>0.136188654432259</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1940807984587427</v>
+        <v>0.193584288914625</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>157821</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>146211</v>
+        <v>146761</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>167525</v>
+        <v>167075</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7729005015539141</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7160409410986303</v>
+        <v>0.718737853092561</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8204227002452495</v>
+        <v>0.8182198955734632</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>379</v>
@@ -1985,19 +1985,19 @@
         <v>175686</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>165409</v>
+        <v>165795</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>183308</v>
+        <v>183771</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.7745495442210829</v>
+        <v>0.7745495442210828</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.7292426863312975</v>
+        <v>0.7309440748657884</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.808155888168824</v>
+        <v>0.8101941201581083</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>591</v>
@@ -2006,19 +2006,19 @@
         <v>333507</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>319234</v>
+        <v>319561</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>346309</v>
+        <v>345786</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7737683142950844</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.7406539823880669</v>
+        <v>0.7414136454189251</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8034705555494562</v>
+        <v>0.8022584174395593</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>12051</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7256</v>
+        <v>7441</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18730</v>
+        <v>19481</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05901698937875866</v>
+        <v>0.05901698937875864</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0355367525892931</v>
+        <v>0.03644127326573292</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09172467330992502</v>
+        <v>0.09540553138864281</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -2056,19 +2056,19 @@
         <v>14928</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10660</v>
+        <v>10537</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20531</v>
+        <v>20391</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06581291491045269</v>
+        <v>0.06581291491045267</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0469950897767075</v>
+        <v>0.04645292936612663</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09051652459767064</v>
+        <v>0.08989962840023621</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -2077,19 +2077,19 @@
         <v>26979</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20706</v>
+        <v>20294</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35498</v>
+        <v>35963</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06259336182919067</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04803894013342683</v>
+        <v>0.04708373546968017</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08235837815174278</v>
+        <v>0.0834368578424773</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>85021</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>72124</v>
+        <v>72798</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>99542</v>
+        <v>100281</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3140685397140959</v>
+        <v>0.314068539714096</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2664274644765697</v>
+        <v>0.2689170427767885</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3677112397480661</v>
+        <v>0.3704425473921208</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>246</v>
@@ -2202,19 +2202,19 @@
         <v>137065</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>124231</v>
+        <v>123337</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>149555</v>
+        <v>148877</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.5196772267851596</v>
+        <v>0.5196772267851593</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4710187799884979</v>
+        <v>0.4676276471830235</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5670330364743</v>
+        <v>0.5644632661592727</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>377</v>
@@ -2223,19 +2223,19 @@
         <v>222085</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>202912</v>
+        <v>203838</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>241649</v>
+        <v>240807</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4155347450757637</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3796598160548114</v>
+        <v>0.3813920237528232</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4521397103436913</v>
+        <v>0.4505646991463681</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>113267</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>99095</v>
+        <v>98211</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>129421</v>
+        <v>126814</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4184122938325474</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3660608629703071</v>
+        <v>0.3627947630115274</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4780842591848209</v>
+        <v>0.4684559809395816</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>162</v>
@@ -2273,19 +2273,19 @@
         <v>96867</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>84479</v>
+        <v>85359</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>109181</v>
+        <v>109700</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3672679954748669</v>
+        <v>0.3672679954748668</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3202997707023431</v>
+        <v>0.3236364425901581</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.413957248070319</v>
+        <v>0.415923542160923</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>309</v>
@@ -2294,19 +2294,19 @@
         <v>210134</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>188733</v>
+        <v>192758</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>228681</v>
+        <v>231124</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3931730009108177</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.353131140017836</v>
+        <v>0.360661818765713</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4278759796451774</v>
+        <v>0.4324463820608892</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>72419</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>59197</v>
+        <v>60039</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>85810</v>
+        <v>86050</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2675191664533567</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2186753977566691</v>
+        <v>0.2217859749455625</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.316983010388432</v>
+        <v>0.3178721555757533</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>52</v>
@@ -2344,19 +2344,19 @@
         <v>29818</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22145</v>
+        <v>22165</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>37790</v>
+        <v>37533</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1130547777399737</v>
+        <v>0.1130547777399736</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08396080701199095</v>
+        <v>0.08403730257669312</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1432793355332376</v>
+        <v>0.1423069134694964</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>145</v>
@@ -2365,19 +2365,19 @@
         <v>102237</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>88217</v>
+        <v>86499</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>119051</v>
+        <v>119135</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1912922540134186</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1650599093740462</v>
+        <v>0.1618444733138638</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2227518735265736</v>
+        <v>0.2229084655425881</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>314907</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>285105</v>
+        <v>285192</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>347669</v>
+        <v>345919</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4382192821171946</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3967482585424023</v>
+        <v>0.3968690715276565</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4838103107243182</v>
+        <v>0.4813758060191516</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>365</v>
@@ -2490,19 +2490,19 @@
         <v>296651</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>271131</v>
+        <v>269597</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>323065</v>
+        <v>321038</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3846023636699391</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3515158134047627</v>
+        <v>0.3495274566970138</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4188478351724524</v>
+        <v>0.4162192666478067</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>627</v>
@@ -2511,19 +2511,19 @@
         <v>611558</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>569993</v>
+        <v>571110</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>650574</v>
+        <v>651331</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4104623388385734</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3825651137589382</v>
+        <v>0.3833150027258733</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4366492746139419</v>
+        <v>0.4371569562112669</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>208679</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>183083</v>
+        <v>182611</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>237264</v>
+        <v>238008</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2903947478906476</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.254776024111512</v>
+        <v>0.2541193587928415</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3301727047467183</v>
+        <v>0.331208997164346</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>274</v>
@@ -2561,19 +2561,19 @@
         <v>217321</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>194209</v>
+        <v>194246</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>241878</v>
+        <v>242260</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2817522892963455</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.251788383576586</v>
+        <v>0.2518361787983225</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3135905601795909</v>
+        <v>0.3140857974402469</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>448</v>
@@ -2582,19 +2582,19 @@
         <v>426000</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>387065</v>
+        <v>389137</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>462498</v>
+        <v>463275</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2859206333772247</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2597885883014461</v>
+        <v>0.2611793483728373</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3104170017833967</v>
+        <v>0.310938475192304</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>195019</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>165863</v>
+        <v>166321</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>223389</v>
+        <v>224265</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2713859699921579</v>
+        <v>0.271385969992158</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2308126485748</v>
+        <v>0.231449167105111</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3108651599014485</v>
+        <v>0.3120835034514925</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>320</v>
@@ -2632,19 +2632,19 @@
         <v>257347</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>234089</v>
+        <v>232355</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>284669</v>
+        <v>285189</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3336453470337154</v>
+        <v>0.3336453470337153</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3034914109969715</v>
+        <v>0.30124434078287</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3690681282331207</v>
+        <v>0.3697419402383644</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>482</v>
@@ -2653,19 +2653,19 @@
         <v>452366</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>416229</v>
+        <v>417832</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>491626</v>
+        <v>493233</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.303617027784202</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.279362659319099</v>
+        <v>0.2804381852647355</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3299673396024776</v>
+        <v>0.3310459071235833</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>148492</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>126293</v>
+        <v>125832</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>170818</v>
+        <v>171262</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1860631329727717</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1582474808337166</v>
+        <v>0.1576699887746543</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2140384195620018</v>
+        <v>0.2145944567044517</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>270</v>
@@ -2778,19 +2778,19 @@
         <v>211280</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>189863</v>
+        <v>188494</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>233110</v>
+        <v>235857</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.25414653394528</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2283847946388754</v>
+        <v>0.2267373487791226</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2804054514479233</v>
+        <v>0.2837101784487495</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>417</v>
@@ -2799,19 +2799,19 @@
         <v>359772</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>326923</v>
+        <v>330666</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>390599</v>
+        <v>397582</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2207996962525077</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2006400438439908</v>
+        <v>0.2029370239214626</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2397189441288097</v>
+        <v>0.2440046678898614</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>509260</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>481629</v>
+        <v>481663</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>537966</v>
+        <v>540298</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6381129226321909</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6034909233858089</v>
+        <v>0.6035329633632884</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6740819119221488</v>
+        <v>0.6770042258363393</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>652</v>
@@ -2849,19 +2849,19 @@
         <v>509527</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>483597</v>
+        <v>483805</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>534518</v>
+        <v>535229</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6129045885868704</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5817143101246914</v>
+        <v>0.5819643581098527</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6429659260100482</v>
+        <v>0.6438220367979257</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1141</v>
@@ -2870,19 +2870,19 @@
         <v>1018787</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>981236</v>
+        <v>975146</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1058908</v>
+        <v>1056802</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.6252514780181712</v>
+        <v>0.6252514780181714</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6022061396997686</v>
+        <v>0.5984681992285591</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.649874658662685</v>
+        <v>0.6485825937227413</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>140320</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>117259</v>
+        <v>115653</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>165253</v>
+        <v>164482</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1758239443950374</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1469282835377091</v>
+        <v>0.1449156512643894</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2070653560044193</v>
+        <v>0.2060991159545333</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>140</v>
@@ -2920,19 +2920,19 @@
         <v>110525</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>93130</v>
+        <v>92957</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>129930</v>
+        <v>130130</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.1329488774678497</v>
+        <v>0.1329488774678498</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1120257555710517</v>
+        <v>0.1118172034993827</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1562912942721683</v>
+        <v>0.1565317564179851</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>266</v>
@@ -2941,19 +2941,19 @@
         <v>250845</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>222147</v>
+        <v>218144</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>279285</v>
+        <v>280228</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.153948825729321</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1363366909468113</v>
+        <v>0.133879433797298</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1714033228053483</v>
+        <v>0.1719822732819988</v>
       </c>
     </row>
     <row r="35">
@@ -3045,19 +3045,19 @@
         <v>1147921</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1086494</v>
+        <v>1087159</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1208033</v>
+        <v>1207532</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.3255738506201656</v>
+        <v>0.3255738506201655</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3081518386876337</v>
+        <v>0.308340601834904</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3426227424105324</v>
+        <v>0.3424808144206997</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2060</v>
@@ -3066,19 +3066,19 @@
         <v>1411713</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1357760</v>
+        <v>1362717</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1462208</v>
+        <v>1462763</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3784580913973257</v>
+        <v>0.3784580913973256</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.363994126747213</v>
+        <v>0.3653230067961203</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3919950284351483</v>
+        <v>0.3921437235460253</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3181</v>
@@ -3087,19 +3087,19 @@
         <v>2559634</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2478814</v>
+        <v>2481362</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2640392</v>
+        <v>2640495</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.3527605853220363</v>
+        <v>0.3527605853220362</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3416222468395615</v>
+        <v>0.3419733492094166</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3638903638137853</v>
+        <v>0.3639045773710116</v>
       </c>
     </row>
     <row r="37">
@@ -3116,19 +3116,19 @@
         <v>1603414</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1540924</v>
+        <v>1541119</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1664146</v>
+        <v>1665244</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.4547608715859405</v>
+        <v>0.4547608715859404</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4370376275759036</v>
+        <v>0.437092798396299</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4719858555006251</v>
+        <v>0.4722972470176079</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2330</v>
@@ -3137,19 +3137,19 @@
         <v>1598684</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1549332</v>
+        <v>1542111</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1658118</v>
+        <v>1654922</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.4285821511686627</v>
+        <v>0.4285821511686626</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4153517109619487</v>
+        <v>0.4134156485608196</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4445154953489604</v>
+        <v>0.4436585519683875</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3898</v>
@@ -3158,19 +3158,19 @@
         <v>3202098</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3120990</v>
+        <v>3104414</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3286340</v>
+        <v>3285301</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4413029129131867</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.430124865546578</v>
+        <v>0.4278404800238873</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4529129248451215</v>
+        <v>0.4527696661446098</v>
       </c>
     </row>
     <row r="38">
@@ -3187,19 +3187,19 @@
         <v>774504</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>721768</v>
+        <v>716018</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>840258</v>
+        <v>826309</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.219665277793894</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2047081845324069</v>
+        <v>0.2030773517256237</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.238314283499838</v>
+        <v>0.2343580114407724</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>966</v>
@@ -3208,19 +3208,19 @@
         <v>719773</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>675520</v>
+        <v>672862</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>764403</v>
+        <v>763247</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.1929597574340118</v>
+        <v>0.1929597574340117</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1810963325874512</v>
+        <v>0.1803836332807903</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2049244694875111</v>
+        <v>0.2046145736663723</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1645</v>
@@ -3229,19 +3229,19 @@
         <v>1494277</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1425228</v>
+        <v>1421638</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1572015</v>
+        <v>1565823</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.205936501764777</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1964203721110555</v>
+        <v>0.1959255777874047</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2166501016390269</v>
+        <v>0.2157966656600261</v>
       </c>
     </row>
     <row r="39">
